--- a/2024_2025_AM1_AM2_AM3_PoiGanttSkeleton/src/test/resources/output/EggsScrambled_Output.xlsx
+++ b/2024_2025_AM1_AM2_AM3_PoiGanttSkeleton/src/test/resources/output/EggsScrambled_Output.xlsx
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -124,6 +124,21 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
@@ -140,6 +155,21 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
@@ -154,8 +184,23 @@
       <color indexed="12"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +225,16 @@
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" wrapText="false"/>
@@ -211,12 +266,12 @@
       <alignment horizontal="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
@@ -226,6 +281,33 @@
       <alignment horizontal="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -709,11 +791,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.55859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="33.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.12109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="36.91015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.03515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -798,276 +880,287 @@
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2" t="n" s="5">
         <v>100.0</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="E2" t="n" s="0">
+      <c r="E2" t="n" s="5">
         <v>60.0</v>
       </c>
-      <c r="F2" t="n" s="0">
+      <c r="F2" t="n" s="5">
         <v>91.0</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="C3" t="n" s="0">
+      <c r="B3" s="3"/>
+      <c r="C3" t="n" s="6">
         <v>101.0</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="E3" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
+      <c r="E3" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F3" t="n" s="6">
         <v>15.0</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="C4" t="n" s="0">
+      <c r="B4" s="3"/>
+      <c r="C4" t="n" s="6">
         <v>102.0</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="E4" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
+      <c r="E4" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F4" t="n" s="6">
         <v>14.0</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="C5" t="n" s="0">
+      <c r="B5" s="3"/>
+      <c r="C5" t="n" s="6">
         <v>103.0</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="E5" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
+      <c r="E5" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F5" t="n" s="6">
         <v>14.0</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="C6" t="n" s="0">
+      <c r="B6" s="3"/>
+      <c r="C6" t="n" s="6">
         <v>105.0</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E6" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
+      <c r="E6" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="n" s="6">
         <v>16.0</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
-      <c r="C7" t="n" s="0">
+      <c r="B7" s="3"/>
+      <c r="C7" t="n" s="6">
         <v>104.0</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E7" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
+      <c r="E7" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F7" t="n" s="6">
         <v>17.0</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
-      <c r="C8" t="n" s="0">
+      <c r="B8" s="3"/>
+      <c r="C8" t="n" s="6">
         <v>106.0</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="E8" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
+      <c r="E8" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F8" t="n" s="6">
         <v>15.0</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="B9" t="s" s="0">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="n" s="0">
+      <c r="C9" t="n" s="5">
         <v>200.0</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="E9" t="n" s="0">
+      <c r="E9" t="n" s="5">
         <v>20.0</v>
       </c>
-      <c r="F9" t="n" s="0">
+      <c r="F9" t="n" s="5">
         <v>56.0</v>
       </c>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
-      <c r="C10" t="n" s="0">
+      <c r="B10" s="3"/>
+      <c r="C10" t="n" s="6">
         <v>201.0</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="E10" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
+      <c r="E10" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F10" t="n" s="6">
         <v>28.0</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="C11" t="n" s="0">
+      <c r="B11" s="3"/>
+      <c r="C11" t="n" s="6">
         <v>202.0</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="E11" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
+      <c r="E11" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F11" t="n" s="6">
         <v>28.0</v>
       </c>
-      <c r="R11" s="5"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="B12" t="s" s="0">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="n" s="0">
+      <c r="C12" t="n" s="5">
         <v>300.0</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="E12" t="n" s="0">
+      <c r="E12" t="n" s="5">
         <v>30.0</v>
       </c>
-      <c r="F12" t="n" s="0">
+      <c r="F12" t="n" s="5">
         <v>149.0</v>
       </c>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="C13" t="n" s="0">
+      <c r="B13" s="3"/>
+      <c r="C13" t="n" s="6">
         <v>301.0</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E13" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F13" t="n" s="0">
+      <c r="E13" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F13" t="n" s="6">
         <v>50.0</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="C14" t="n" s="0">
+      <c r="B14" s="3"/>
+      <c r="C14" t="n" s="6">
         <v>302.0</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="E14" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F14" t="n" s="0">
+      <c r="E14" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F14" t="n" s="6">
         <v>50.0</v>
       </c>
-      <c r="T14" s="5"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="C15" t="n" s="0">
+      <c r="B15" s="3"/>
+      <c r="C15" t="n" s="6">
         <v>303.0</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F15" t="n" s="0">
+      <c r="E15" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F15" t="n" s="6">
         <v>49.0</v>
       </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1083,169 +1176,169 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.55859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.12109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="32.71875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.03515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="n">
+      <c r="G1" s="10" t="n">
         <v>1.0</v>
       </c>
-      <c r="H1" s="7" t="n">
+      <c r="H1" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="I1" s="7" t="n">
+      <c r="I1" s="10" t="n">
         <v>3.0</v>
       </c>
-      <c r="J1" s="7" t="n">
+      <c r="J1" s="10" t="n">
         <v>4.0</v>
       </c>
-      <c r="K1" s="7" t="n">
+      <c r="K1" s="10" t="n">
         <v>5.0</v>
       </c>
-      <c r="L1" s="7" t="n">
+      <c r="L1" s="10" t="n">
         <v>6.0</v>
       </c>
-      <c r="M1" s="7" t="n">
+      <c r="M1" s="10" t="n">
         <v>7.0</v>
       </c>
-      <c r="N1" s="7" t="n">
+      <c r="N1" s="10" t="n">
         <v>8.0</v>
       </c>
-      <c r="O1" s="7" t="n">
+      <c r="O1" s="10" t="n">
         <v>9.0</v>
       </c>
-      <c r="P1" s="7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q1" s="7" t="n">
+      <c r="P1" s="10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q1" s="10" t="n">
         <v>11.0</v>
       </c>
-      <c r="R1" s="7" t="n">
+      <c r="R1" s="10" t="n">
         <v>12.0</v>
       </c>
-      <c r="S1" s="7" t="n">
+      <c r="S1" s="10" t="n">
         <v>13.0</v>
       </c>
-      <c r="T1" s="7" t="n">
+      <c r="T1" s="10" t="n">
         <v>14.0</v>
       </c>
-      <c r="U1" s="7" t="n">
+      <c r="U1" s="10" t="n">
         <v>15.0</v>
       </c>
-      <c r="V1" s="7" t="n">
+      <c r="V1" s="10" t="n">
         <v>16.0</v>
       </c>
-      <c r="W1" s="7" t="n">
+      <c r="W1" s="10" t="n">
         <v>17.0</v>
       </c>
-      <c r="X1" s="7" t="n">
+      <c r="X1" s="10" t="n">
         <v>18.0</v>
       </c>
-      <c r="Y1" s="7" t="n">
+      <c r="Y1" s="10" t="n">
         <v>19.0</v>
       </c>
-      <c r="Z1" s="7" t="n">
+      <c r="Z1" s="10" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s" s="0">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2" t="n" s="11">
         <v>100.0</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="E2" t="n" s="0">
+      <c r="E2" t="n" s="11">
         <v>60.0</v>
       </c>
-      <c r="F2" t="n" s="0">
+      <c r="F2" t="n" s="11">
         <v>91.0</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="0">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="C3" t="n" s="11">
         <v>200.0</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="E3" t="n" s="0">
+      <c r="E3" t="n" s="11">
         <v>20.0</v>
       </c>
-      <c r="F3" t="n" s="0">
+      <c r="F3" t="n" s="11">
         <v>56.0</v>
       </c>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="0">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="C4" t="n" s="11">
         <v>300.0</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="E4" t="n" s="0">
+      <c r="E4" t="n" s="11">
         <v>30.0</v>
       </c>
-      <c r="F4" t="n" s="0">
+      <c r="F4" t="n" s="11">
         <v>149.0</v>
       </c>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="0"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1261,59 +1354,72 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.55859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.12109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="32.71875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.8984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="8.03515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10" t="n">
+      <c r="G1" s="16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1" s="16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I1" s="16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J1" s="16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K1" s="16" t="n">
         <v>5.0</v>
       </c>
-      <c r="L1" s="10" t="n">
+      <c r="L1" s="16" t="n">
         <v>6.0</v>
       </c>
-      <c r="M1" s="10" t="n">
+      <c r="M1" s="16" t="n">
         <v>7.0</v>
       </c>
-      <c r="N1" s="10" t="n">
+      <c r="N1" s="16" t="n">
         <v>8.0</v>
       </c>
-      <c r="O1" s="10" t="n">
+      <c r="O1" s="16" t="n">
         <v>9.0</v>
       </c>
-      <c r="P1" s="10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q1" s="10" t="n">
+      <c r="P1" s="16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q1" s="16" t="n">
         <v>11.0</v>
       </c>
-      <c r="R1" s="10" t="n">
+      <c r="R1" s="16" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" t="n" s="1">
         <v>103.0</v>
       </c>
@@ -1326,15 +1432,16 @@
       <c r="F2" t="n" s="1">
         <v>14.0</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="n" s="1">
         <v>105.0</v>
       </c>
@@ -1347,10 +1454,11 @@
       <c r="F3" t="n" s="1">
         <v>16.0</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" t="n" s="1">
         <v>104.0</v>
       </c>
@@ -1363,16 +1471,17 @@
       <c r="F4" t="n" s="1">
         <v>17.0</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="n" s="1">
         <v>106.0</v>
       </c>
@@ -1385,31 +1494,32 @@
       <c r="F5" t="n" s="1">
         <v>15.0</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s" s="0">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="C6" t="n" s="17">
         <v>200.0</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="E6" t="n" s="0">
+      <c r="E6" t="n" s="17">
         <v>20.0</v>
       </c>
-      <c r="F6" t="n" s="0">
+      <c r="F6" t="n" s="17">
         <v>56.0</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" t="n" s="1">
         <v>201.0</v>
       </c>
@@ -1422,12 +1532,13 @@
       <c r="F7" t="n" s="1">
         <v>28.0</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" t="n" s="1">
         <v>202.0</v>
       </c>
@@ -1440,7 +1551,7 @@
       <c r="F8" t="n" s="1">
         <v>28.0</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="R8" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
